--- a/mbs-perturbation/nano/knn/smote/nano-knn-smote-results.xlsx
+++ b/mbs-perturbation/nano/knn/smote/nano-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9558823529411765</v>
+        <v>0.9704142011834319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9154929577464789</v>
+        <v>0.7699530516431925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9352517985611511</v>
+        <v>0.8586387434554974</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9788074239831512</v>
+        <v>0.8947281821771753</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9282511210762332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9158878504672897</v>
+        <v>0.9672897196261683</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9095127610208816</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9698236145847046</v>
+        <v>0.9670593655390287</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.892018779342723</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8616780045351474</v>
+        <v>0.8927789934354486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9013753884811214</v>
+        <v>0.9063788049108422</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6242038216560509</v>
+        <v>0.5938375350140056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.92018779342723</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7438330170777988</v>
+        <v>0.7438596491228071</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7789790385505522</v>
+        <v>0.6599660561176134</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7388059701492538</v>
+        <v>0.5525606469002695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9295774647887324</v>
+        <v>0.9624413145539906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8232848232848234</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8573254865657167</v>
+        <v>0.6142299808239106</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8110902569062854</v>
+        <v>0.7762258155888864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9146329691544908</v>
+        <v>0.9305471458031679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8547120808959605</v>
+        <v>0.8289401203173865</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8972621904330491</v>
+        <v>0.808472477913714</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/knn/smote/nano-knn-smote-results.xlsx
+++ b/mbs-perturbation/nano/knn/smote/nano-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9704142011834319</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7699530516431925</v>
+        <v>0.7938144329896907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8586387434554974</v>
+        <v>0.6051080550098231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8947281821771753</v>
+        <v>0.4814007864810288</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9282511210762332</v>
+        <v>0.9273743016759777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9672897196261683</v>
+        <v>0.8601036269430051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9670593655390287</v>
+        <v>0.9684044655734202</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.8189655172413793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8927789934354486</v>
+        <v>0.8941176470588235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9063788049108422</v>
+        <v>0.8940361091822018</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5938375350140056</v>
+        <v>0.8165938864628821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7438596491228071</v>
+        <v>0.8841607565011821</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6599660561176134</v>
+        <v>0.8754874205437744</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5525606469002695</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9624413145539906</v>
+        <v>0.8041237113402062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.702054794520548</v>
+        <v>0.7090909090909092</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6142299808239106</v>
+        <v>0.7672266438758614</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7762258155888864</v>
+        <v>0.7371937871465085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9305471458031679</v>
+        <v>0.8812830511190641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8289401203173865</v>
+        <v>0.7969900971880616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.808472477913714</v>
+        <v>0.7973110851312574</v>
       </c>
     </row>
   </sheetData>
